--- a/data/cost_diversion.xlsx
+++ b/data/cost_diversion.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oburdash\dev\repos\standard_inputs\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{052E9708-12DF-4383-8D12-D79707F545A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54473B18-D26D-412E-A403-A36714CCD976}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="18240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="commercial" sheetId="1" r:id="rId1"/>
@@ -370,15 +370,15 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -389,7 +389,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -400,7 +400,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -411,7 +411,7 @@
         <v>10500</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -433,15 +433,15 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -449,7 +449,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>

--- a/data/cost_diversion.xlsx
+++ b/data/cost_diversion.xlsx
@@ -1,55 +1,95 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oburdash\dev\repos\standard_inputs\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54473B18-D26D-412E-A403-A36714CCD976}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87DB813A-6329-49D6-BAF6-14C3E765651A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="18240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="commercial" sheetId="1" r:id="rId1"/>
     <sheet name="business" sheetId="2" r:id="rId2"/>
+    <sheet name="curfew" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
     <t>type</t>
   </si>
   <si>
+    <t>cost</t>
+  </si>
+  <si>
+    <t>Business aviation</t>
+  </si>
+  <si>
+    <t>recommended</t>
+  </si>
+  <si>
+    <t>pax_compensation</t>
+  </si>
+  <si>
     <t>min</t>
   </si>
   <si>
     <t>max</t>
   </si>
   <si>
-    <t>Regional flights</t>
-  </si>
-  <si>
-    <t>Continental flights</t>
-  </si>
-  <si>
-    <t>Intercontinental flights</t>
-  </si>
-  <si>
-    <t>cost</t>
-  </si>
-  <si>
-    <t>Business aviation</t>
+    <t>flight</t>
+  </si>
+  <si>
+    <t>Continental flights - LCC (Narrow-body)</t>
+  </si>
+  <si>
+    <t>Continental flights - Mainline (Narrow-body)</t>
+  </si>
+  <si>
+    <t>Intercontinental flights (Wide-body)</t>
+  </si>
+  <si>
+    <t>Regional flights (Regional jet &amp; turboprop)</t>
+  </si>
+  <si>
+    <t>Regional flights
+(Regional jet &amp; turboprop)</t>
+  </si>
+  <si>
+    <t>Continental flights - LCC
+(Narrow-body)</t>
+  </si>
+  <si>
+    <t>Continental flights - Mainline
+(Narrow-body)</t>
+  </si>
+  <si>
+    <t>Intercontinental flights
+(Wide-body)</t>
   </si>
 </sst>
 </file>
@@ -85,8 +125,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -367,59 +410,103 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.42578125" customWidth="1"/>
+    <col min="2" max="3" width="10.5703125" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="B2">
-        <v>1000</v>
+        <v>7000</v>
       </c>
       <c r="C2">
-        <v>7000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
+        <v>79000</v>
+      </c>
+      <c r="D2">
+        <v>15000</v>
+      </c>
+      <c r="E2">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="B3">
-        <v>1400</v>
+        <v>5000</v>
       </c>
       <c r="C3">
-        <v>10500</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>5</v>
+        <v>125000</v>
+      </c>
+      <c r="D3">
+        <v>55000</v>
+      </c>
+      <c r="E3">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="B4">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="C4">
-        <v>77200</v>
+        <v>157000</v>
+      </c>
+      <c r="D4">
+        <v>55000</v>
+      </c>
+      <c r="E4">
+        <v>27000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5">
+        <v>27000</v>
+      </c>
+      <c r="C5">
+        <v>365000</v>
+      </c>
+      <c r="D5">
+        <v>82000</v>
+      </c>
+      <c r="E5">
+        <v>32000</v>
       </c>
     </row>
   </sheetData>
@@ -432,8 +519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80A8F460-FABD-4300-971C-311778C470E0}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -446,18 +533,128 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B2">
-        <v>8800</v>
+        <v>9600</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DE8885C-2B96-459E-B247-EE6EF2D4E733}">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="35.7109375" customWidth="1"/>
+    <col min="2" max="5" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2">
+        <v>9000</v>
+      </c>
+      <c r="C2">
+        <v>79000</v>
+      </c>
+      <c r="D2">
+        <v>18000</v>
+      </c>
+      <c r="E2">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>12000</v>
+      </c>
+      <c r="C3">
+        <v>125000</v>
+      </c>
+      <c r="D3">
+        <v>75000</v>
+      </c>
+      <c r="E3">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>15000</v>
+      </c>
+      <c r="C4">
+        <v>157000</v>
+      </c>
+      <c r="D4">
+        <v>81000</v>
+      </c>
+      <c r="E4">
+        <v>26000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>37000</v>
+      </c>
+      <c r="C5">
+        <v>365000</v>
+      </c>
+      <c r="D5">
+        <v>172000</v>
+      </c>
+      <c r="E5">
+        <v>31000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{fd60f3b8-f236-4830-aecc-da0a7fc54679}" enabled="1" method="Standard" siteId="{76f33c20-5979-4408-adf7-8b3c4be95e52}" contentBits="0" removed="0"/>
+</clbl:labelList>
 </file>